--- a/Idioma/Idioma ISMoney.xlsx
+++ b/Idioma/Idioma ISMoney.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ISMoney\Idioma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9CD9F-24FD-4FBF-AC98-D2954C15DC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A308C71-7906-47CB-B672-095D1C68E600}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25635" yWindow="2775" windowWidth="17985" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24645" yWindow="2790" windowWidth="19845" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Portugues</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Euro</t>
   </si>
   <si>
-    <t>Valor em dinheiro</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -118,6 +115,18 @@
   </si>
   <si>
     <t>Personalizar</t>
+  </si>
+  <si>
+    <t>Do lançamento</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Agência</t>
+  </si>
+  <si>
+    <t>Nro da Conta</t>
   </si>
 </sst>
 </file>
@@ -459,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,25 +621,40 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Idioma/Idioma ISMoney.xlsx
+++ b/Idioma/Idioma ISMoney.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ISMoney\Idioma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A308C71-7906-47CB-B672-095D1C68E600}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24645" yWindow="2790" windowWidth="19845" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24645" yWindow="2790" windowWidth="19845" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Portugues</t>
   </si>
@@ -127,13 +122,169 @@
   </si>
   <si>
     <t>Nro da Conta</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Select Language</t>
+  </si>
+  <si>
+    <t>Select Coin</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Ayer</t>
+  </si>
+  <si>
+    <t>Hoy</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>Portugués</t>
+  </si>
+  <si>
+    <t>Seleccione la Moneda</t>
+  </si>
+  <si>
+    <t>Seleccione el Idioma</t>
+  </si>
+  <si>
+    <t>Idioma y Moneda</t>
+  </si>
+  <si>
+    <t>Language and Coin</t>
+  </si>
+  <si>
+    <t>Disconnect</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Overall Balance</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Categorías</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Borrar</t>
+  </si>
+  <si>
+    <t>Alterar Contraseña</t>
+  </si>
+  <si>
+    <t>Balance General</t>
+  </si>
+  <si>
+    <t>Management panel</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Personilaze</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t>Panel de gestión</t>
+  </si>
+  <si>
+    <t>Acceso</t>
+  </si>
+  <si>
+    <t>Agencia</t>
+  </si>
+  <si>
+    <t>Número de cuenta</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>adicionar</t>
+  </si>
+  <si>
+    <t>Não sei uma palavra que excaixa direito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -283,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -460,27 +611,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,167 +647,362 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>26</v>
       </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
